--- a/Code/Results/Cases/Case_6_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016466611429951</v>
+        <v>1.034588267260824</v>
       </c>
       <c r="D2">
-        <v>1.030130133735476</v>
+        <v>1.045830505154143</v>
       </c>
       <c r="E2">
-        <v>1.028203662291324</v>
+        <v>1.044217242178686</v>
       </c>
       <c r="F2">
-        <v>1.034844275120001</v>
+        <v>1.051111413752273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047923023360342</v>
+        <v>1.057827834295656</v>
       </c>
       <c r="J2">
-        <v>1.038165721322707</v>
+        <v>1.055781469748644</v>
       </c>
       <c r="K2">
-        <v>1.041185079538115</v>
+        <v>1.056686242412566</v>
       </c>
       <c r="L2">
-        <v>1.039283575927294</v>
+        <v>1.055093104504356</v>
       </c>
       <c r="M2">
-        <v>1.045838613771585</v>
+        <v>1.061901810595158</v>
       </c>
       <c r="N2">
-        <v>1.039640035726297</v>
+        <v>1.057280800535515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02388925817619</v>
+        <v>1.040617513616599</v>
       </c>
       <c r="D3">
-        <v>1.035796617172723</v>
+        <v>1.050498876052798</v>
       </c>
       <c r="E3">
-        <v>1.03460687390723</v>
+        <v>1.04941392597141</v>
       </c>
       <c r="F3">
-        <v>1.041646133862133</v>
+        <v>1.056734533555841</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050283626692521</v>
+        <v>1.060067834124857</v>
       </c>
       <c r="J3">
-        <v>1.043749205632687</v>
+        <v>1.060058981628788</v>
       </c>
       <c r="K3">
-        <v>1.045991078817603</v>
+        <v>1.060523950486795</v>
       </c>
       <c r="L3">
-        <v>1.044815303350475</v>
+        <v>1.059451300278677</v>
       </c>
       <c r="M3">
-        <v>1.051772494617826</v>
+        <v>1.066689518292962</v>
       </c>
       <c r="N3">
-        <v>1.045231449224393</v>
+        <v>1.061564386973165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028552319979625</v>
+        <v>1.044423494214936</v>
       </c>
       <c r="D4">
-        <v>1.039358346993331</v>
+        <v>1.053448107795542</v>
       </c>
       <c r="E4">
-        <v>1.038635386194648</v>
+        <v>1.052699705517589</v>
       </c>
       <c r="F4">
-        <v>1.045926456137928</v>
+        <v>1.060290896324489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051754596042007</v>
+        <v>1.061472214937127</v>
       </c>
       <c r="J4">
-        <v>1.047252818239269</v>
+        <v>1.062755280235006</v>
       </c>
       <c r="K4">
-        <v>1.049003870159362</v>
+        <v>1.062941574924594</v>
       </c>
       <c r="L4">
-        <v>1.048288848186607</v>
+        <v>1.062201124056352</v>
       </c>
       <c r="M4">
-        <v>1.055500471561832</v>
+        <v>1.069712298158129</v>
       </c>
       <c r="N4">
-        <v>1.048740037362746</v>
+        <v>1.064264514632675</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030481020635714</v>
+        <v>1.046001730778163</v>
       </c>
       <c r="D5">
-        <v>1.040831879337892</v>
+        <v>1.054671561152286</v>
       </c>
       <c r="E5">
-        <v>1.040302953208821</v>
+        <v>1.054063457245439</v>
       </c>
       <c r="F5">
-        <v>1.047698505383691</v>
+        <v>1.061767190888028</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052360063446953</v>
+        <v>1.062052220605156</v>
       </c>
       <c r="J5">
-        <v>1.048700919625508</v>
+        <v>1.063872383008144</v>
       </c>
       <c r="K5">
-        <v>1.050248374877174</v>
+        <v>1.063942861314063</v>
       </c>
       <c r="L5">
-        <v>1.049725091668251</v>
+        <v>1.063341039432648</v>
       </c>
       <c r="M5">
-        <v>1.057042375534699</v>
+        <v>1.070965837376963</v>
       </c>
       <c r="N5">
-        <v>1.050190195219053</v>
+        <v>1.065383203819884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030803052641121</v>
+        <v>1.046265474073731</v>
       </c>
       <c r="D6">
-        <v>1.04107793063962</v>
+        <v>1.054876042459218</v>
       </c>
       <c r="E6">
-        <v>1.040581459603095</v>
+        <v>1.054291428041108</v>
       </c>
       <c r="F6">
-        <v>1.04799447648397</v>
+        <v>1.062013989106642</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052460982470303</v>
+        <v>1.062149007322908</v>
       </c>
       <c r="J6">
-        <v>1.048942643972679</v>
+        <v>1.064059006200447</v>
       </c>
       <c r="K6">
-        <v>1.050456070120434</v>
+        <v>1.064110114776646</v>
       </c>
       <c r="L6">
-        <v>1.0499648699065</v>
+        <v>1.063531511048569</v>
       </c>
       <c r="M6">
-        <v>1.057299820530057</v>
+        <v>1.071175322590967</v>
       </c>
       <c r="N6">
-        <v>1.050432262842523</v>
+        <v>1.065570092038525</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028578213416966</v>
+        <v>1.044444667027832</v>
       </c>
       <c r="D7">
-        <v>1.039378128371724</v>
+        <v>1.053464519177911</v>
       </c>
       <c r="E7">
-        <v>1.038657768698324</v>
+        <v>1.052717996128085</v>
       </c>
       <c r="F7">
-        <v>1.04595024003998</v>
+        <v>1.060310695404042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05176273637031</v>
+        <v>1.061480005354068</v>
       </c>
       <c r="J7">
-        <v>1.047272263659562</v>
+        <v>1.062770270640772</v>
       </c>
       <c r="K7">
-        <v>1.049020584567877</v>
+        <v>1.062955012624954</v>
       </c>
       <c r="L7">
-        <v>1.048308132132055</v>
+        <v>1.062216418070586</v>
       </c>
       <c r="M7">
-        <v>1.055521172362093</v>
+        <v>1.069729114768214</v>
       </c>
       <c r="N7">
-        <v>1.048759510397766</v>
+        <v>1.064279526326535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019005250337716</v>
+        <v>1.036646261730356</v>
       </c>
       <c r="D8">
-        <v>1.032067668703805</v>
+        <v>1.047423457577112</v>
       </c>
       <c r="E8">
-        <v>1.03039234508407</v>
+        <v>1.045989891322513</v>
       </c>
       <c r="F8">
-        <v>1.037169011715054</v>
+        <v>1.053029330353294</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048732874411776</v>
+        <v>1.05859442254351</v>
       </c>
       <c r="J8">
-        <v>1.040076156287268</v>
+        <v>1.057242326400279</v>
       </c>
       <c r="K8">
-        <v>1.042830100207584</v>
+        <v>1.057997194448005</v>
       </c>
       <c r="L8">
-        <v>1.041175787552472</v>
+        <v>1.05658095286911</v>
       </c>
       <c r="M8">
-        <v>1.047867985513946</v>
+        <v>1.06353588162667</v>
       </c>
       <c r="N8">
-        <v>1.041553183727598</v>
+        <v>1.058743731771157</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000973654179446</v>
+        <v>1.022124313858384</v>
       </c>
       <c r="D9">
-        <v>1.018318807113567</v>
+        <v>1.036195840037951</v>
       </c>
       <c r="E9">
-        <v>1.014875879531279</v>
+        <v>1.033506907451175</v>
       </c>
       <c r="F9">
-        <v>1.020692051786345</v>
+        <v>1.039527051103077</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042931484241777</v>
+        <v>1.053145776057114</v>
       </c>
       <c r="J9">
-        <v>1.026492076995704</v>
+        <v>1.046919287627352</v>
       </c>
       <c r="K9">
-        <v>1.0311215051558</v>
+        <v>1.048727745728228</v>
       </c>
       <c r="L9">
-        <v>1.027732129969893</v>
+        <v>1.046078782410382</v>
       </c>
       <c r="M9">
-        <v>1.033458104139769</v>
+        <v>1.052009804583233</v>
       </c>
       <c r="N9">
-        <v>1.027949813485324</v>
+        <v>1.048406033099104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9880269010326912</v>
+        <v>1.011842219450785</v>
       </c>
       <c r="D10">
-        <v>1.00847006306275</v>
+        <v>1.028266183037966</v>
       </c>
       <c r="E10">
-        <v>1.003777862328625</v>
+        <v>1.024704069550383</v>
       </c>
       <c r="F10">
-        <v>1.008911888845685</v>
+        <v>1.03000964236612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038706451076435</v>
+        <v>1.049239935089672</v>
       </c>
       <c r="J10">
-        <v>1.016723745185838</v>
+        <v>1.039593743199574</v>
       </c>
       <c r="K10">
-        <v>1.022688053587018</v>
+        <v>1.042143172592549</v>
       </c>
       <c r="L10">
-        <v>1.018079239683864</v>
+        <v>1.038641164126862</v>
       </c>
       <c r="M10">
-        <v>1.023122079329014</v>
+        <v>1.043857409089614</v>
       </c>
       <c r="N10">
-        <v>1.018167609523845</v>
+        <v>1.041070085557987</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.982163532936883</v>
+        <v>1.007228297678923</v>
       </c>
       <c r="D11">
-        <v>1.004017401333178</v>
+        <v>1.024713857220295</v>
       </c>
       <c r="E11">
-        <v>0.998763810352456</v>
+        <v>1.020763485013642</v>
       </c>
       <c r="F11">
-        <v>1.003590676028071</v>
+        <v>1.025750024287347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036780030404665</v>
+        <v>1.047476607309204</v>
       </c>
       <c r="J11">
-        <v>1.012297627103946</v>
+        <v>1.036303432328107</v>
       </c>
       <c r="K11">
-        <v>1.018863950956244</v>
+        <v>1.039184285803833</v>
       </c>
       <c r="L11">
-        <v>1.013709077114159</v>
+        <v>1.035304175131689</v>
       </c>
       <c r="M11">
-        <v>1.018445193661836</v>
+        <v>1.040202139720686</v>
       </c>
       <c r="N11">
-        <v>1.013735205846594</v>
+        <v>1.037775102067678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799432310746731</v>
+        <v>1.005488365718235</v>
       </c>
       <c r="D12">
-        <v>1.002332661118178</v>
+        <v>1.023375271975217</v>
       </c>
       <c r="E12">
-        <v>0.9968671139032911</v>
+        <v>1.019279007820715</v>
       </c>
       <c r="F12">
-        <v>1.00157793165413</v>
+        <v>1.024145474627973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036048710358503</v>
+        <v>1.046810117325916</v>
       </c>
       <c r="J12">
-        <v>1.010621371797552</v>
+        <v>1.035062250741368</v>
       </c>
       <c r="K12">
-        <v>1.017415307061007</v>
+        <v>1.038067934850277</v>
       </c>
       <c r="L12">
-        <v>1.01205458220747</v>
+        <v>1.034045944168992</v>
       </c>
       <c r="M12">
-        <v>1.016674963294558</v>
+        <v>1.038824258429341</v>
       </c>
       <c r="N12">
-        <v>1.012056570065396</v>
+        <v>1.03653215786072</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.980421476624719</v>
+        <v>1.005862800052241</v>
       </c>
       <c r="D13">
-        <v>1.002695483255411</v>
+        <v>1.023663288537851</v>
       </c>
       <c r="E13">
-        <v>0.9972755629211683</v>
+        <v>1.019598397054248</v>
       </c>
       <c r="F13">
-        <v>1.002011365016325</v>
+        <v>1.024490692947075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036206315128078</v>
+        <v>1.046953614306803</v>
       </c>
       <c r="J13">
-        <v>1.010982438430135</v>
+        <v>1.035329370042951</v>
       </c>
       <c r="K13">
-        <v>1.017727362608445</v>
+        <v>1.038308197171339</v>
       </c>
       <c r="L13">
-        <v>1.012410935592467</v>
+        <v>1.034316707350991</v>
       </c>
       <c r="M13">
-        <v>1.017056226865631</v>
+        <v>1.039120753429759</v>
       </c>
       <c r="N13">
-        <v>1.012418149454013</v>
+        <v>1.03679965650235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9819808900472222</v>
+        <v>1.007085018289243</v>
       </c>
       <c r="D14">
-        <v>1.003878784982376</v>
+        <v>1.02460360652786</v>
       </c>
       <c r="E14">
-        <v>0.9986077458705728</v>
+        <v>1.020641209932796</v>
       </c>
       <c r="F14">
-        <v>1.003425060012877</v>
+        <v>1.025617856750341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03671990825773</v>
+        <v>1.047421754056574</v>
       </c>
       <c r="J14">
-        <v>1.01215974099234</v>
+        <v>1.036201231340887</v>
       </c>
       <c r="K14">
-        <v>1.018744795315124</v>
+        <v>1.03909236733406</v>
       </c>
       <c r="L14">
-        <v>1.013572969313255</v>
+        <v>1.035200558874292</v>
       </c>
       <c r="M14">
-        <v>1.018299556973239</v>
+        <v>1.04008866289866</v>
       </c>
       <c r="N14">
-        <v>1.013597123920894</v>
+        <v>1.037672755943333</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.982935959813265</v>
+        <v>1.0078345491356</v>
       </c>
       <c r="D15">
-        <v>1.004603689489955</v>
+        <v>1.025180397853278</v>
       </c>
       <c r="E15">
-        <v>0.9994239148285395</v>
+        <v>1.021280925060644</v>
       </c>
       <c r="F15">
-        <v>1.004291186308148</v>
+        <v>1.026309331417772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037034222986802</v>
+        <v>1.047708643460268</v>
       </c>
       <c r="J15">
-        <v>1.012880762793367</v>
+        <v>1.036735855241861</v>
       </c>
       <c r="K15">
-        <v>1.019367858089341</v>
+        <v>1.039573194696</v>
       </c>
       <c r="L15">
-        <v>1.014284715379755</v>
+        <v>1.035742608992075</v>
       </c>
       <c r="M15">
-        <v>1.019061148005036</v>
+        <v>1.040682311412789</v>
       </c>
       <c r="N15">
-        <v>1.014319169655581</v>
+        <v>1.038208139071569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.988410304770532</v>
+        <v>1.012144871819505</v>
       </c>
       <c r="D16">
-        <v>1.008761397131938</v>
+        <v>1.028499333210106</v>
       </c>
       <c r="E16">
-        <v>1.004105993656822</v>
+        <v>1.024962760682548</v>
       </c>
       <c r="F16">
-        <v>1.009260141929099</v>
+        <v>1.030289293720207</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038832159963943</v>
+        <v>1.049355385993701</v>
       </c>
       <c r="J16">
-        <v>1.017013132536917</v>
+        <v>1.039809514646052</v>
       </c>
       <c r="K16">
-        <v>1.022938024990697</v>
+        <v>1.04233718266886</v>
       </c>
       <c r="L16">
-        <v>1.018365045716817</v>
+        <v>1.038860073334173</v>
       </c>
       <c r="M16">
-        <v>1.023427997927642</v>
+        <v>1.044097247591079</v>
       </c>
       <c r="N16">
-        <v>1.018457407838156</v>
+        <v>1.041286163424668</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9917728398101268</v>
+        <v>1.01480409873649</v>
       </c>
       <c r="D17">
-        <v>1.011317349103149</v>
+        <v>1.030548576268937</v>
       </c>
       <c r="E17">
-        <v>1.006985156697825</v>
+        <v>1.027236819761026</v>
       </c>
       <c r="F17">
-        <v>1.012315976908405</v>
+        <v>1.032747700530352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039933203684957</v>
+        <v>1.050368585715814</v>
       </c>
       <c r="J17">
-        <v>1.019550888640505</v>
+        <v>1.041705028329279</v>
       </c>
       <c r="K17">
-        <v>1.025129811952102</v>
+        <v>1.04404137147528</v>
       </c>
       <c r="L17">
-        <v>1.020871809356947</v>
+        <v>1.040783567391857</v>
       </c>
       <c r="M17">
-        <v>1.026111454287732</v>
+        <v>1.046204914764474</v>
       </c>
       <c r="N17">
-        <v>1.020998767846496</v>
+        <v>1.043184368954743</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9937095960106865</v>
+        <v>1.016339710505219</v>
       </c>
       <c r="D18">
-        <v>1.0127902342088</v>
+        <v>1.031732499997</v>
       </c>
       <c r="E18">
-        <v>1.008644619158361</v>
+        <v>1.028550904773942</v>
       </c>
       <c r="F18">
-        <v>1.014077365425819</v>
+        <v>1.034168393285225</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040566157626058</v>
+        <v>1.050952663468326</v>
       </c>
       <c r="J18">
-        <v>1.021012371825984</v>
+        <v>1.042799324806049</v>
       </c>
       <c r="K18">
-        <v>1.026391784272739</v>
+        <v>1.045025082225425</v>
       </c>
       <c r="L18">
-        <v>1.022315785118576</v>
+        <v>1.041894362085963</v>
       </c>
       <c r="M18">
-        <v>1.027657450285623</v>
+        <v>1.047422295480495</v>
       </c>
       <c r="N18">
-        <v>1.022462326505733</v>
+        <v>1.044280219458028</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9943659204144735</v>
+        <v>1.016860742849995</v>
       </c>
       <c r="D19">
-        <v>1.013289476580875</v>
+        <v>1.032134295879142</v>
       </c>
       <c r="E19">
-        <v>1.009207159623221</v>
+        <v>1.028996922010182</v>
       </c>
       <c r="F19">
-        <v>1.01467447464685</v>
+        <v>1.034650608669651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040780440721299</v>
+        <v>1.051150667468894</v>
       </c>
       <c r="J19">
-        <v>1.021507596346003</v>
+        <v>1.043170566525723</v>
       </c>
       <c r="K19">
-        <v>1.026819357658852</v>
+        <v>1.045358784622272</v>
       </c>
       <c r="L19">
-        <v>1.022805134506565</v>
+        <v>1.042271259111963</v>
       </c>
       <c r="M19">
-        <v>1.02818141390937</v>
+        <v>1.047835396390303</v>
       </c>
       <c r="N19">
-        <v>1.022958254301374</v>
+        <v>1.044651988383526</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9914146366795646</v>
+        <v>1.014520401616738</v>
       </c>
       <c r="D20">
-        <v>1.011044994669857</v>
+        <v>1.030329896117993</v>
       </c>
       <c r="E20">
-        <v>1.006678328523052</v>
+        <v>1.026994120344537</v>
       </c>
       <c r="F20">
-        <v>1.011990310988707</v>
+        <v>1.032485318278514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039816038719694</v>
+        <v>1.05026059787125</v>
       </c>
       <c r="J20">
-        <v>1.01928056890242</v>
+        <v>1.041502837588855</v>
       </c>
       <c r="K20">
-        <v>1.024896372212149</v>
+        <v>1.043859602590317</v>
       </c>
       <c r="L20">
-        <v>1.020604755326626</v>
+        <v>1.040578356163734</v>
       </c>
       <c r="M20">
-        <v>1.025825551662062</v>
+        <v>1.045980031039141</v>
       </c>
       <c r="N20">
-        <v>1.020728064223377</v>
+        <v>1.042981891080277</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9815228841083584</v>
+        <v>1.006725841941351</v>
       </c>
       <c r="D21">
-        <v>1.003531205256837</v>
+        <v>1.024327244068325</v>
       </c>
       <c r="E21">
-        <v>0.9982164221709279</v>
+        <v>1.020334712794657</v>
       </c>
       <c r="F21">
-        <v>1.003009788603839</v>
+        <v>1.025286564741728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036569113357291</v>
+        <v>1.047284222162225</v>
       </c>
       <c r="J21">
-        <v>1.011813966974566</v>
+        <v>1.035945025351606</v>
       </c>
       <c r="K21">
-        <v>1.018445985280055</v>
+        <v>1.03886193542304</v>
       </c>
       <c r="L21">
-        <v>1.013231663950322</v>
+        <v>1.034940813990196</v>
       </c>
       <c r="M21">
-        <v>1.017934363095915</v>
+        <v>1.0398042053525</v>
       </c>
       <c r="N21">
-        <v>1.013250858864355</v>
+        <v>1.03741618611216</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9750560908952164</v>
+        <v>1.001672955853217</v>
       </c>
       <c r="D22">
-        <v>0.9986271283800114</v>
+        <v>1.020441958316572</v>
       </c>
       <c r="E22">
-        <v>0.9926961615294244</v>
+        <v>1.016026721181176</v>
       </c>
       <c r="F22">
-        <v>0.9971520345805853</v>
+        <v>1.020630315362656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034435739942794</v>
+        <v>1.045345866268886</v>
       </c>
       <c r="J22">
-        <v>1.006931524866389</v>
+        <v>1.032339896271922</v>
       </c>
       <c r="K22">
-        <v>1.014225831273204</v>
+        <v>1.035619049407475</v>
       </c>
       <c r="L22">
-        <v>1.008413710858495</v>
+        <v>1.031287233965608</v>
       </c>
       <c r="M22">
-        <v>1.012780122134464</v>
+        <v>1.035803868589811</v>
       </c>
       <c r="N22">
-        <v>1.00836148312836</v>
+        <v>1.033805937335669</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9785090942310889</v>
+        <v>1.004366663779177</v>
       </c>
       <c r="D23">
-        <v>1.00124486746023</v>
+        <v>1.022512611822572</v>
       </c>
       <c r="E23">
-        <v>0.9956425862222245</v>
+        <v>1.018322439261213</v>
       </c>
       <c r="F23">
-        <v>1.000278521212353</v>
+        <v>1.023111563414895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035575834044439</v>
+        <v>1.046380021207956</v>
       </c>
       <c r="J23">
-        <v>1.009538605941112</v>
+        <v>1.034261984023726</v>
       </c>
       <c r="K23">
-        <v>1.016479462818122</v>
+        <v>1.037348102954041</v>
       </c>
       <c r="L23">
-        <v>1.010986035601014</v>
+        <v>1.033234843309667</v>
       </c>
       <c r="M23">
-        <v>1.015531778945437</v>
+        <v>1.037936127439917</v>
       </c>
       <c r="N23">
-        <v>1.010972266557245</v>
+        <v>1.035730754672548</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.991576568857772</v>
+        <v>1.014648639806744</v>
       </c>
       <c r="D24">
-        <v>1.011168115222013</v>
+        <v>1.03042874329415</v>
       </c>
       <c r="E24">
-        <v>1.006817032262828</v>
+        <v>1.027103823779851</v>
       </c>
       <c r="F24">
-        <v>1.012137530153507</v>
+        <v>1.03260391837124</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039869009070994</v>
+        <v>1.050309414216345</v>
       </c>
       <c r="J24">
-        <v>1.019402772490484</v>
+        <v>1.041594233785982</v>
       </c>
       <c r="K24">
-        <v>1.025001904277626</v>
+        <v>1.043941767916254</v>
       </c>
       <c r="L24">
-        <v>1.020725481526499</v>
+        <v>1.040671116640837</v>
       </c>
       <c r="M24">
-        <v>1.025954797937694</v>
+        <v>1.046081683255863</v>
       </c>
       <c r="N24">
-        <v>1.020850441354553</v>
+        <v>1.043073417070486</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005786868703505</v>
+        <v>1.025978481441711</v>
       </c>
       <c r="D25">
-        <v>1.021985567928516</v>
+        <v>1.039172652200856</v>
       </c>
       <c r="E25">
-        <v>1.019010989185076</v>
+        <v>1.036814166469982</v>
       </c>
       <c r="F25">
-        <v>1.025082270783907</v>
+        <v>1.043103589650403</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044490555542786</v>
+        <v>1.054600313037726</v>
       </c>
       <c r="J25">
-        <v>1.030121038846209</v>
+        <v>1.049662116332559</v>
       </c>
       <c r="K25">
-        <v>1.034251910614171</v>
+        <v>1.051191842328847</v>
       </c>
       <c r="L25">
-        <v>1.031321181939846</v>
+        <v>1.048866658611643</v>
       </c>
       <c r="M25">
-        <v>1.037303306084851</v>
+        <v>1.055067697038417</v>
       </c>
       <c r="N25">
-        <v>1.031583928877906</v>
+        <v>1.051152756935679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034588267260824</v>
+        <v>1.020263816477011</v>
       </c>
       <c r="D2">
-        <v>1.045830505154143</v>
+        <v>1.034226122793839</v>
       </c>
       <c r="E2">
-        <v>1.044217242178686</v>
+        <v>1.03213145109355</v>
       </c>
       <c r="F2">
-        <v>1.051111413752273</v>
+        <v>1.038928677485205</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057827834295656</v>
+        <v>1.051236528848925</v>
       </c>
       <c r="J2">
-        <v>1.055781469748644</v>
+        <v>1.041854883201607</v>
       </c>
       <c r="K2">
-        <v>1.056686242412566</v>
+        <v>1.045228369354144</v>
       </c>
       <c r="L2">
-        <v>1.055093104504356</v>
+        <v>1.043160582476474</v>
       </c>
       <c r="M2">
-        <v>1.061901810595158</v>
+        <v>1.049871060373327</v>
       </c>
       <c r="N2">
-        <v>1.057280800535515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017506128542361</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043050652180624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040617513616599</v>
+        <v>1.024399453992642</v>
       </c>
       <c r="D3">
-        <v>1.050498876052798</v>
+        <v>1.036983984675546</v>
       </c>
       <c r="E3">
-        <v>1.04941392597141</v>
+        <v>1.035622888934311</v>
       </c>
       <c r="F3">
-        <v>1.056734533555841</v>
+        <v>1.042842570084193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060067834124857</v>
+        <v>1.052378769449605</v>
       </c>
       <c r="J3">
-        <v>1.060058981628788</v>
+        <v>1.044246364964867</v>
       </c>
       <c r="K3">
-        <v>1.060523950486795</v>
+        <v>1.047164545945357</v>
       </c>
       <c r="L3">
-        <v>1.059451300278677</v>
+        <v>1.045819387703495</v>
       </c>
       <c r="M3">
-        <v>1.066689518292962</v>
+        <v>1.052955118013248</v>
       </c>
       <c r="N3">
-        <v>1.061564386973165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018328489854799</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04441703352935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044423494214936</v>
+        <v>1.027027390312983</v>
       </c>
       <c r="D4">
-        <v>1.053448107795542</v>
+        <v>1.038740695998199</v>
       </c>
       <c r="E4">
-        <v>1.052699705517589</v>
+        <v>1.037847112117535</v>
       </c>
       <c r="F4">
-        <v>1.060290896324489</v>
+        <v>1.0453358632098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061472214937127</v>
+        <v>1.053097343524213</v>
       </c>
       <c r="J4">
-        <v>1.062755280235006</v>
+        <v>1.045764120268198</v>
       </c>
       <c r="K4">
-        <v>1.062941574924594</v>
+        <v>1.048393000739456</v>
       </c>
       <c r="L4">
-        <v>1.062201124056352</v>
+        <v>1.047509245627032</v>
       </c>
       <c r="M4">
-        <v>1.069712298158129</v>
+        <v>1.05491626339187</v>
       </c>
       <c r="N4">
-        <v>1.064264514632675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018850263508303</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04528653543976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046001730778163</v>
+        <v>1.028125128254908</v>
       </c>
       <c r="D5">
-        <v>1.054671561152286</v>
+        <v>1.039477736206808</v>
       </c>
       <c r="E5">
-        <v>1.054063457245439</v>
+        <v>1.038777872171232</v>
       </c>
       <c r="F5">
-        <v>1.061767190888028</v>
+        <v>1.046378775292233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062052220605156</v>
+        <v>1.053397404386488</v>
       </c>
       <c r="J5">
-        <v>1.063872383008144</v>
+        <v>1.046399272131939</v>
       </c>
       <c r="K5">
-        <v>1.063942861314063</v>
+        <v>1.048908692652465</v>
       </c>
       <c r="L5">
-        <v>1.063341039432648</v>
+        <v>1.048216320573964</v>
       </c>
       <c r="M5">
-        <v>1.070965837376963</v>
+        <v>1.05573651319877</v>
       </c>
       <c r="N5">
-        <v>1.065383203819884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019069068553059</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045658284649037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046265474073731</v>
+        <v>1.028313784731275</v>
       </c>
       <c r="D6">
-        <v>1.054876042459218</v>
+        <v>1.039607182985773</v>
       </c>
       <c r="E6">
-        <v>1.054291428041108</v>
+        <v>1.038938319306231</v>
       </c>
       <c r="F6">
-        <v>1.062013989106642</v>
+        <v>1.046558021443649</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062149007322908</v>
+        <v>1.053450899333126</v>
       </c>
       <c r="J6">
-        <v>1.064059006200447</v>
+        <v>1.046510387366921</v>
       </c>
       <c r="K6">
-        <v>1.064110114776646</v>
+        <v>1.049000954683835</v>
       </c>
       <c r="L6">
-        <v>1.063531511048569</v>
+        <v>1.04833921811802</v>
       </c>
       <c r="M6">
-        <v>1.071175322590967</v>
+        <v>1.055878387185787</v>
       </c>
       <c r="N6">
-        <v>1.065570092038525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019107940477107</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045732198682941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044444667027832</v>
+        <v>1.027055534108729</v>
       </c>
       <c r="D7">
-        <v>1.053464519177911</v>
+        <v>1.038766881589444</v>
       </c>
       <c r="E7">
-        <v>1.052717996128085</v>
+        <v>1.037872084836052</v>
       </c>
       <c r="F7">
-        <v>1.060310695404042</v>
+        <v>1.045362403882774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061480005354068</v>
+        <v>1.053110508035109</v>
       </c>
       <c r="J7">
-        <v>1.062770270640772</v>
+        <v>1.045785746889925</v>
       </c>
       <c r="K7">
-        <v>1.062955012624954</v>
+        <v>1.048416046448023</v>
       </c>
       <c r="L7">
-        <v>1.062216418070586</v>
+        <v>1.047531087933585</v>
       </c>
       <c r="M7">
-        <v>1.069729114768214</v>
+        <v>1.05493968867515</v>
       </c>
       <c r="N7">
-        <v>1.064279526326535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01885933753634</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045322793269343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036646261730356</v>
+        <v>1.021688577839722</v>
       </c>
       <c r="D8">
-        <v>1.047423457577112</v>
+        <v>1.035184385150657</v>
       </c>
       <c r="E8">
-        <v>1.045989891322513</v>
+        <v>1.033334578578012</v>
       </c>
       <c r="F8">
-        <v>1.053029330353294</v>
+        <v>1.040275565653998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05859442254351</v>
+        <v>1.051638335685018</v>
       </c>
       <c r="J8">
-        <v>1.057242326400279</v>
+        <v>1.042685816122192</v>
       </c>
       <c r="K8">
-        <v>1.057997194448005</v>
+        <v>1.045907953953306</v>
       </c>
       <c r="L8">
-        <v>1.05658095286911</v>
+        <v>1.044081177593622</v>
       </c>
       <c r="M8">
-        <v>1.06353588162667</v>
+        <v>1.050936275053062</v>
       </c>
       <c r="N8">
-        <v>1.058743731771157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017794021857173</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04355393022445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022124313858384</v>
+        <v>1.011823443512399</v>
       </c>
       <c r="D9">
-        <v>1.036195840037951</v>
+        <v>1.028623374220647</v>
       </c>
       <c r="E9">
-        <v>1.033506907451175</v>
+        <v>1.025038435808567</v>
       </c>
       <c r="F9">
-        <v>1.039527051103077</v>
+        <v>1.030976585342067</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053145776057114</v>
+        <v>1.048867370092124</v>
       </c>
       <c r="J9">
-        <v>1.046919287627352</v>
+        <v>1.036965484549333</v>
       </c>
       <c r="K9">
-        <v>1.048727745728228</v>
+        <v>1.041268520339021</v>
       </c>
       <c r="L9">
-        <v>1.046078782410382</v>
+        <v>1.037737935822697</v>
       </c>
       <c r="M9">
-        <v>1.052009804583233</v>
+        <v>1.043586314254364</v>
       </c>
       <c r="N9">
-        <v>1.048406033099104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015824494531244</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040270415794275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011842219450785</v>
+        <v>1.004965515624918</v>
       </c>
       <c r="D10">
-        <v>1.028266183037966</v>
+        <v>1.024092079055669</v>
       </c>
       <c r="E10">
-        <v>1.024704069550383</v>
+        <v>1.019305495617711</v>
       </c>
       <c r="F10">
-        <v>1.03000964236612</v>
+        <v>1.024548921168981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049239935089672</v>
+        <v>1.04690706901424</v>
       </c>
       <c r="J10">
-        <v>1.039593743199574</v>
+        <v>1.032983499822093</v>
       </c>
       <c r="K10">
-        <v>1.042143172592549</v>
+        <v>1.038039554334912</v>
       </c>
       <c r="L10">
-        <v>1.038641164126862</v>
+        <v>1.033334717732937</v>
       </c>
       <c r="M10">
-        <v>1.043857409089614</v>
+        <v>1.038488645888124</v>
       </c>
       <c r="N10">
-        <v>1.041070085557987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014453914551185</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038004091287049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007228297678923</v>
+        <v>1.001939849127058</v>
       </c>
       <c r="D11">
-        <v>1.024713857220295</v>
+        <v>1.022109035170186</v>
       </c>
       <c r="E11">
-        <v>1.020763485013642</v>
+        <v>1.016786597704654</v>
       </c>
       <c r="F11">
-        <v>1.025750024287347</v>
+        <v>1.021722394594858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047476607309204</v>
+        <v>1.046040973370308</v>
       </c>
       <c r="J11">
-        <v>1.036303432328107</v>
+        <v>1.031232150185568</v>
       </c>
       <c r="K11">
-        <v>1.039184285803833</v>
+        <v>1.036625714090285</v>
       </c>
       <c r="L11">
-        <v>1.035304175131689</v>
+        <v>1.031398737913479</v>
       </c>
       <c r="M11">
-        <v>1.040202139720686</v>
+        <v>1.036245964667991</v>
       </c>
       <c r="N11">
-        <v>1.037775102067678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013853643952087</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03703718955932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005488365718235</v>
+        <v>1.000794535094441</v>
       </c>
       <c r="D12">
-        <v>1.023375271975217</v>
+        <v>1.021354474641781</v>
       </c>
       <c r="E12">
-        <v>1.019279007820715</v>
+        <v>1.015833429805391</v>
       </c>
       <c r="F12">
-        <v>1.024145474627973</v>
+        <v>1.020653821779878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046810117325916</v>
+        <v>1.045708189426596</v>
       </c>
       <c r="J12">
-        <v>1.035062250741368</v>
+        <v>1.030565306791962</v>
       </c>
       <c r="K12">
-        <v>1.038067934850277</v>
+        <v>1.036083681773378</v>
       </c>
       <c r="L12">
-        <v>1.034045944168992</v>
+        <v>1.030663445675621</v>
       </c>
       <c r="M12">
-        <v>1.038824258429341</v>
+        <v>1.035395743525312</v>
       </c>
       <c r="N12">
-        <v>1.03653215786072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013623727419233</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036653957030046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005862800052241</v>
+        <v>1.001038803434101</v>
       </c>
       <c r="D13">
-        <v>1.023663288537851</v>
+        <v>1.021514369745171</v>
       </c>
       <c r="E13">
-        <v>1.019598397054248</v>
+        <v>1.016036451218409</v>
       </c>
       <c r="F13">
-        <v>1.024490692947075</v>
+        <v>1.02088164005583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046953614306803</v>
+        <v>1.045778482136174</v>
       </c>
       <c r="J13">
-        <v>1.035329370042951</v>
+        <v>1.030706803735115</v>
       </c>
       <c r="K13">
-        <v>1.038308197171339</v>
+        <v>1.036197987793081</v>
       </c>
       <c r="L13">
-        <v>1.034316707350991</v>
+        <v>1.030819709989796</v>
       </c>
       <c r="M13">
-        <v>1.039120753429759</v>
+        <v>1.035576696124688</v>
       </c>
       <c r="N13">
-        <v>1.03679965650235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013672242156713</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036732287779258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007085018289243</v>
+        <v>1.001844590563121</v>
       </c>
       <c r="D14">
-        <v>1.02460360652786</v>
+        <v>1.022045833149716</v>
       </c>
       <c r="E14">
-        <v>1.020641209932796</v>
+        <v>1.016707205410234</v>
       </c>
       <c r="F14">
-        <v>1.025617856750341</v>
+        <v>1.021633482017304</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047421754056574</v>
+        <v>1.046013005094184</v>
       </c>
       <c r="J14">
-        <v>1.036201231340887</v>
+        <v>1.031176377935363</v>
       </c>
       <c r="K14">
-        <v>1.03909236733406</v>
+        <v>1.036580078122095</v>
       </c>
       <c r="L14">
-        <v>1.035200558874292</v>
+        <v>1.03133734447004</v>
       </c>
       <c r="M14">
-        <v>1.04008866289866</v>
+        <v>1.036175087394369</v>
       </c>
       <c r="N14">
-        <v>1.037672755943333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013834299360811</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03700385833231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0078345491356</v>
+        <v>1.002343338731805</v>
       </c>
       <c r="D15">
-        <v>1.025180397853278</v>
+        <v>1.022376890539302</v>
       </c>
       <c r="E15">
-        <v>1.021280925060644</v>
+        <v>1.017122957510283</v>
       </c>
       <c r="F15">
-        <v>1.026309331417772</v>
+        <v>1.022099064442231</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047708643460268</v>
+        <v>1.046159466490364</v>
       </c>
       <c r="J15">
-        <v>1.036735855241861</v>
+        <v>1.031468455015292</v>
       </c>
       <c r="K15">
-        <v>1.039573194696</v>
+        <v>1.036819144558292</v>
       </c>
       <c r="L15">
-        <v>1.035742608992075</v>
+        <v>1.031658850982694</v>
       </c>
       <c r="M15">
-        <v>1.040682311412789</v>
+        <v>1.03654623880897</v>
       </c>
       <c r="N15">
-        <v>1.038208139071569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013935632782822</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037178742225428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012144871819505</v>
+        <v>1.005197704659124</v>
       </c>
       <c r="D16">
-        <v>1.028499333210106</v>
+        <v>1.024261414955396</v>
       </c>
       <c r="E16">
-        <v>1.024962760682548</v>
+        <v>1.019502428460418</v>
       </c>
       <c r="F16">
-        <v>1.030289293720207</v>
+        <v>1.02476626191687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049355385993701</v>
+        <v>1.046986030611344</v>
       </c>
       <c r="J16">
-        <v>1.039809514646052</v>
+        <v>1.033130477574708</v>
       </c>
       <c r="K16">
-        <v>1.04233718266886</v>
+        <v>1.038170582847301</v>
       </c>
       <c r="L16">
-        <v>1.038860073334173</v>
+        <v>1.033492596897632</v>
       </c>
       <c r="M16">
-        <v>1.044097247591079</v>
+        <v>1.038666893986134</v>
       </c>
       <c r="N16">
-        <v>1.041286163424668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014508875045626</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038137407290606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01480409873649</v>
+        <v>1.006967716691991</v>
       </c>
       <c r="D17">
-        <v>1.030548576268937</v>
+        <v>1.025431894018731</v>
       </c>
       <c r="E17">
-        <v>1.027236819761026</v>
+        <v>1.020980242739778</v>
       </c>
       <c r="F17">
-        <v>1.032747700530352</v>
+        <v>1.026422672504901</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050368585715814</v>
+        <v>1.047496427820575</v>
       </c>
       <c r="J17">
-        <v>1.041705028329279</v>
+        <v>1.034160744221531</v>
       </c>
       <c r="K17">
-        <v>1.04404137147528</v>
+        <v>1.039008234714689</v>
       </c>
       <c r="L17">
-        <v>1.040783567391857</v>
+        <v>1.034630147439505</v>
       </c>
       <c r="M17">
-        <v>1.046204914764474</v>
+        <v>1.039982752103231</v>
       </c>
       <c r="N17">
-        <v>1.043184368954743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014864199064091</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038732230599537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016339710505219</v>
+        <v>1.007982856782216</v>
       </c>
       <c r="D18">
-        <v>1.031732499997</v>
+        <v>1.026098648881312</v>
       </c>
       <c r="E18">
-        <v>1.028550904773942</v>
+        <v>1.021827580527755</v>
       </c>
       <c r="F18">
-        <v>1.034168393285225</v>
+        <v>1.027373479532224</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050952663468326</v>
+        <v>1.047784493074509</v>
       </c>
       <c r="J18">
-        <v>1.042799324806049</v>
+        <v>1.034747637041469</v>
       </c>
       <c r="K18">
-        <v>1.045025082225425</v>
+        <v>1.039481595164742</v>
       </c>
       <c r="L18">
-        <v>1.041894362085963</v>
+        <v>1.035279885885047</v>
       </c>
       <c r="M18">
-        <v>1.047422295480495</v>
+        <v>1.040735866877276</v>
       </c>
       <c r="N18">
-        <v>1.044280219458028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015065229852629</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039055311693463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016860742849995</v>
+        <v>1.008335593200527</v>
       </c>
       <c r="D19">
-        <v>1.032134295879142</v>
+        <v>1.026334482259387</v>
       </c>
       <c r="E19">
-        <v>1.028996922010182</v>
+        <v>1.022122940668916</v>
       </c>
       <c r="F19">
-        <v>1.034650608669651</v>
+        <v>1.027704042700982</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051150667468894</v>
+        <v>1.047887475125014</v>
       </c>
       <c r="J19">
-        <v>1.043170566525723</v>
+        <v>1.034954539783126</v>
       </c>
       <c r="K19">
-        <v>1.045358784622272</v>
+        <v>1.039651428313873</v>
       </c>
       <c r="L19">
-        <v>1.042271259111963</v>
+        <v>1.035507869170094</v>
       </c>
       <c r="M19">
-        <v>1.047835396390303</v>
+        <v>1.040999035333214</v>
       </c>
       <c r="N19">
-        <v>1.044651988383526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015137175421009</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039181758193891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014520401616738</v>
+        <v>1.006777772331602</v>
       </c>
       <c r="D20">
-        <v>1.030329896117993</v>
+        <v>1.025305815468524</v>
       </c>
       <c r="E20">
-        <v>1.026994120344537</v>
+        <v>1.020821490453069</v>
       </c>
       <c r="F20">
-        <v>1.032485318278514</v>
+        <v>1.026244823960419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05026059787125</v>
+        <v>1.047441436469631</v>
       </c>
       <c r="J20">
-        <v>1.041502837588855</v>
+        <v>1.034049899437888</v>
       </c>
       <c r="K20">
-        <v>1.043859602590317</v>
+        <v>1.038917823697773</v>
       </c>
       <c r="L20">
-        <v>1.040578356163734</v>
+        <v>1.034507839877396</v>
       </c>
       <c r="M20">
-        <v>1.045980031039141</v>
+        <v>1.039841371108087</v>
       </c>
       <c r="N20">
-        <v>1.042981891080277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01482586389624</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03866697653563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006725841941351</v>
+        <v>1.001618565869669</v>
       </c>
       <c r="D21">
-        <v>1.024327244068325</v>
+        <v>1.021902243364215</v>
       </c>
       <c r="E21">
-        <v>1.020334712794657</v>
+        <v>1.016520170431142</v>
       </c>
       <c r="F21">
-        <v>1.025286564741728</v>
+        <v>1.021422646888013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047284222162225</v>
+        <v>1.045951377017798</v>
       </c>
       <c r="J21">
-        <v>1.035945025351606</v>
+        <v>1.031048771035352</v>
       </c>
       <c r="K21">
-        <v>1.03886193542304</v>
+        <v>1.036480221519765</v>
       </c>
       <c r="L21">
-        <v>1.034940813990196</v>
+        <v>1.031195179637504</v>
       </c>
       <c r="M21">
-        <v>1.0398042053525</v>
+        <v>1.036009217570908</v>
       </c>
       <c r="N21">
-        <v>1.03741618611216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013791776101355</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036946735849524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001672955853217</v>
+        <v>0.9982923007844314</v>
       </c>
       <c r="D22">
-        <v>1.020441958316572</v>
+        <v>1.019707375579829</v>
       </c>
       <c r="E22">
-        <v>1.016026721181176</v>
+        <v>1.013753361419302</v>
       </c>
       <c r="F22">
-        <v>1.020630315362656</v>
+        <v>1.018321917278515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045345866268886</v>
+        <v>1.044978473811759</v>
       </c>
       <c r="J22">
-        <v>1.032339896271922</v>
+        <v>1.029107629781839</v>
       </c>
       <c r="K22">
-        <v>1.035619049407475</v>
+        <v>1.034898280469536</v>
       </c>
       <c r="L22">
-        <v>1.031287233965608</v>
+        <v>1.029057198025158</v>
       </c>
       <c r="M22">
-        <v>1.035803868589811</v>
+        <v>1.033538946539259</v>
       </c>
       <c r="N22">
-        <v>1.033805937335669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013120956055916</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035814775745558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004366663779177</v>
+        <v>1.00004923441811</v>
       </c>
       <c r="D23">
-        <v>1.022512611822572</v>
+        <v>1.020859477669936</v>
       </c>
       <c r="E23">
-        <v>1.018322439261213</v>
+        <v>1.015212648726275</v>
       </c>
       <c r="F23">
-        <v>1.023111563414895</v>
+        <v>1.019958790736196</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046380021207956</v>
+        <v>1.045488082719036</v>
       </c>
       <c r="J23">
-        <v>1.034261984023726</v>
+        <v>1.030128118234879</v>
       </c>
       <c r="K23">
-        <v>1.037348102954041</v>
+        <v>1.03572521477301</v>
       </c>
       <c r="L23">
-        <v>1.033234843309667</v>
+        <v>1.03018267014068</v>
       </c>
       <c r="M23">
-        <v>1.037936127439917</v>
+        <v>1.034841060683762</v>
       </c>
       <c r="N23">
-        <v>1.035730754672548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013471801165781</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03638983887245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014648639806744</v>
+        <v>1.006842340275587</v>
       </c>
       <c r="D24">
-        <v>1.03042874329415</v>
+        <v>1.025337808538606</v>
       </c>
       <c r="E24">
-        <v>1.027103823779851</v>
+        <v>1.020873300940607</v>
       </c>
       <c r="F24">
-        <v>1.03260391837124</v>
+        <v>1.026305174866222</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050309414216345</v>
+        <v>1.047452010365617</v>
       </c>
       <c r="J24">
-        <v>1.041594233785982</v>
+        <v>1.034079520438997</v>
       </c>
       <c r="K24">
-        <v>1.043941767916254</v>
+        <v>1.038934109812566</v>
       </c>
       <c r="L24">
-        <v>1.040671116640837</v>
+        <v>1.034543512283612</v>
       </c>
       <c r="M24">
-        <v>1.046081683255863</v>
+        <v>1.039885570363295</v>
       </c>
       <c r="N24">
-        <v>1.043073417070486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014833229684786</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038651188790603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025978481441711</v>
+        <v>1.014444076722185</v>
       </c>
       <c r="D25">
-        <v>1.039172652200856</v>
+        <v>1.030373222904057</v>
       </c>
       <c r="E25">
-        <v>1.036814166469982</v>
+        <v>1.027238676020926</v>
       </c>
       <c r="F25">
-        <v>1.043103589650403</v>
+        <v>1.033440576487419</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054600313037726</v>
+        <v>1.049618419121913</v>
       </c>
       <c r="J25">
-        <v>1.049662116332559</v>
+        <v>1.038494929650592</v>
       </c>
       <c r="K25">
-        <v>1.051191842328847</v>
+        <v>1.042517645331039</v>
       </c>
       <c r="L25">
-        <v>1.048866658611643</v>
+        <v>1.039428365833076</v>
       </c>
       <c r="M25">
-        <v>1.055067697038417</v>
+        <v>1.045541038337451</v>
       </c>
       <c r="N25">
-        <v>1.051152756935679</v>
+        <v>1.016354032309225</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041182058658483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020263816477011</v>
+        <v>1.019073556417528</v>
       </c>
       <c r="D2">
-        <v>1.034226122793839</v>
+        <v>1.032497329238089</v>
       </c>
       <c r="E2">
-        <v>1.03213145109355</v>
+        <v>1.031106887402077</v>
       </c>
       <c r="F2">
-        <v>1.038928677485205</v>
+        <v>1.037871697512883</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051236528848925</v>
+        <v>1.050439837802669</v>
       </c>
       <c r="J2">
-        <v>1.041854883201607</v>
+        <v>1.040698371520331</v>
       </c>
       <c r="K2">
-        <v>1.045228369354144</v>
+        <v>1.043521754793638</v>
       </c>
       <c r="L2">
-        <v>1.043160582476474</v>
+        <v>1.042149218678794</v>
       </c>
       <c r="M2">
-        <v>1.049871060373327</v>
+        <v>1.04882747677675</v>
       </c>
       <c r="N2">
-        <v>1.017506128542361</v>
+        <v>1.017751527374243</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043050652180624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041852665843375</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023533920983103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024399453992642</v>
+        <v>1.02299370448151</v>
       </c>
       <c r="D3">
-        <v>1.036983984675546</v>
+        <v>1.03500484445717</v>
       </c>
       <c r="E3">
-        <v>1.035622888934311</v>
+        <v>1.034405809935786</v>
       </c>
       <c r="F3">
-        <v>1.042842570084193</v>
+        <v>1.041591436818754</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052378769449605</v>
+        <v>1.051448308289552</v>
       </c>
       <c r="J3">
-        <v>1.044246364964867</v>
+        <v>1.042876577589538</v>
       </c>
       <c r="K3">
-        <v>1.047164545945357</v>
+        <v>1.045208597231284</v>
       </c>
       <c r="L3">
-        <v>1.045819387703495</v>
+        <v>1.044616603834772</v>
       </c>
       <c r="M3">
-        <v>1.052955118013248</v>
+        <v>1.051718429987603</v>
       </c>
       <c r="N3">
-        <v>1.018328489854799</v>
+        <v>1.018345122737712</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04441703352935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043042470947097</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023889889297909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027027390312983</v>
+        <v>1.025486273059771</v>
       </c>
       <c r="D4">
-        <v>1.038740695998199</v>
+        <v>1.036603479429086</v>
       </c>
       <c r="E4">
-        <v>1.037847112117535</v>
+        <v>1.036509018470862</v>
       </c>
       <c r="F4">
-        <v>1.0453358632098</v>
+        <v>1.043962772710671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053097343524213</v>
+        <v>1.052082405792395</v>
       </c>
       <c r="J4">
-        <v>1.045764120268198</v>
+        <v>1.044259766261136</v>
       </c>
       <c r="K4">
-        <v>1.048393000739456</v>
+        <v>1.046279326651487</v>
       </c>
       <c r="L4">
-        <v>1.047509245627032</v>
+        <v>1.046185908980439</v>
       </c>
       <c r="M4">
-        <v>1.05491626339187</v>
+        <v>1.053558051296218</v>
       </c>
       <c r="N4">
-        <v>1.018850263508303</v>
+        <v>1.018722051619597</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04528653543976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043800531439882</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024113509676638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028125128254908</v>
+        <v>1.026527727931408</v>
       </c>
       <c r="D5">
-        <v>1.039477736206808</v>
+        <v>1.037274692125995</v>
       </c>
       <c r="E5">
-        <v>1.038777872171232</v>
+        <v>1.037389438099678</v>
       </c>
       <c r="F5">
-        <v>1.046378775292233</v>
+        <v>1.044954973891556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053397404386488</v>
+        <v>1.052347251074987</v>
       </c>
       <c r="J5">
-        <v>1.046399272131939</v>
+        <v>1.044838841743629</v>
       </c>
       <c r="K5">
-        <v>1.048908692652465</v>
+        <v>1.046729273763802</v>
       </c>
       <c r="L5">
-        <v>1.048216320573964</v>
+        <v>1.046842786179333</v>
       </c>
       <c r="M5">
-        <v>1.05573651319877</v>
+        <v>1.054327721176762</v>
       </c>
       <c r="N5">
-        <v>1.019069068553059</v>
+        <v>1.018880217826782</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045658284649037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044126507979368</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024207446267012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028313784731275</v>
+        <v>1.026706619856733</v>
       </c>
       <c r="D6">
-        <v>1.039607182985773</v>
+        <v>1.037392805566525</v>
       </c>
       <c r="E6">
-        <v>1.038938319306231</v>
+        <v>1.037541138021874</v>
       </c>
       <c r="F6">
-        <v>1.046558021443649</v>
+        <v>1.045125412951739</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053450899333126</v>
+        <v>1.052394639621985</v>
       </c>
       <c r="J6">
-        <v>1.046510387366921</v>
+        <v>1.04494022747301</v>
       </c>
       <c r="K6">
-        <v>1.049000954683835</v>
+        <v>1.046810215740228</v>
       </c>
       <c r="L6">
-        <v>1.04833921811802</v>
+        <v>1.046956960884923</v>
       </c>
       <c r="M6">
-        <v>1.055878387185787</v>
+        <v>1.05446081043534</v>
       </c>
       <c r="N6">
-        <v>1.019107940477107</v>
+        <v>1.018908358074393</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045732198682941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044193290143029</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024224957596092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027055534108729</v>
+        <v>1.025522184844229</v>
       </c>
       <c r="D7">
-        <v>1.038766881589444</v>
+        <v>1.036634901681074</v>
       </c>
       <c r="E7">
-        <v>1.037872084836052</v>
+        <v>1.036541116180469</v>
       </c>
       <c r="F7">
-        <v>1.045362403882774</v>
+        <v>1.043996415501044</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053110508035109</v>
+        <v>1.052099394070637</v>
       </c>
       <c r="J7">
-        <v>1.045785746889925</v>
+        <v>1.044288959213915</v>
       </c>
       <c r="K7">
-        <v>1.048416046448023</v>
+        <v>1.046307541920155</v>
       </c>
       <c r="L7">
-        <v>1.047531087933585</v>
+        <v>1.046214791823775</v>
       </c>
       <c r="M7">
-        <v>1.05493968867515</v>
+        <v>1.053588495778669</v>
       </c>
       <c r="N7">
-        <v>1.01885933753634</v>
+        <v>1.018757333648087</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045322793269343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043842450887735</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024121918022922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021688577839722</v>
+        <v>1.020452723173482</v>
       </c>
       <c r="D8">
-        <v>1.035184385150657</v>
+        <v>1.033390750018878</v>
       </c>
       <c r="E8">
-        <v>1.033334578578012</v>
+        <v>1.032270012122154</v>
       </c>
       <c r="F8">
-        <v>1.040275565653998</v>
+        <v>1.03917796395875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051638335685018</v>
+        <v>1.050810405223359</v>
       </c>
       <c r="J8">
-        <v>1.042685816122192</v>
+        <v>1.041483824838934</v>
       </c>
       <c r="K8">
-        <v>1.045907953953306</v>
+        <v>1.044136648183762</v>
       </c>
       <c r="L8">
-        <v>1.044081177593622</v>
+        <v>1.043029911703015</v>
       </c>
       <c r="M8">
-        <v>1.050936275053062</v>
+        <v>1.049852160343209</v>
       </c>
       <c r="N8">
-        <v>1.017794021857173</v>
+        <v>1.018046606330787</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04355393022445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042312475937294</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02366873749462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011823443512399</v>
+        <v>1.011116541608856</v>
       </c>
       <c r="D9">
-        <v>1.028623374220647</v>
+        <v>1.027436822361095</v>
       </c>
       <c r="E9">
-        <v>1.025038435808567</v>
+        <v>1.024446030446445</v>
       </c>
       <c r="F9">
-        <v>1.030976585342067</v>
+        <v>1.03035576470027</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048867370092124</v>
+        <v>1.048364464123374</v>
       </c>
       <c r="J9">
-        <v>1.036965484549333</v>
+        <v>1.036282762179008</v>
       </c>
       <c r="K9">
-        <v>1.041268520339021</v>
+        <v>1.040099905163941</v>
       </c>
       <c r="L9">
-        <v>1.037737935822697</v>
+        <v>1.037154559055314</v>
       </c>
       <c r="M9">
-        <v>1.043586314254364</v>
+        <v>1.04297481732831</v>
       </c>
       <c r="N9">
-        <v>1.015824494531244</v>
+        <v>1.016637689676929</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040270415794275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039454824583643</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022802271637525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004965515624918</v>
+        <v>1.004680668935338</v>
       </c>
       <c r="D10">
-        <v>1.024092079055669</v>
+        <v>1.023366751088434</v>
       </c>
       <c r="E10">
-        <v>1.019305495617711</v>
+        <v>1.019090314268796</v>
       </c>
       <c r="F10">
-        <v>1.024548921168981</v>
+        <v>1.024309395064205</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04690706901424</v>
+        <v>1.046656249414385</v>
       </c>
       <c r="J10">
-        <v>1.032983499822093</v>
+        <v>1.032709801739826</v>
       </c>
       <c r="K10">
-        <v>1.038039554334912</v>
+        <v>1.037326550281706</v>
       </c>
       <c r="L10">
-        <v>1.033334717732937</v>
+        <v>1.033123234638889</v>
       </c>
       <c r="M10">
-        <v>1.038488645888124</v>
+        <v>1.038253182353345</v>
       </c>
       <c r="N10">
-        <v>1.014453914551185</v>
+        <v>1.015782795442629</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038004091287049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037512330229482</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022199224373783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001939849127058</v>
+        <v>1.001914495675823</v>
       </c>
       <c r="D11">
-        <v>1.022109035170186</v>
+        <v>1.021642031822838</v>
       </c>
       <c r="E11">
-        <v>1.016786597704654</v>
+        <v>1.016805495415374</v>
       </c>
       <c r="F11">
-        <v>1.021722394594858</v>
+        <v>1.021719133258438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046040973370308</v>
+        <v>1.045939321781347</v>
       </c>
       <c r="J11">
-        <v>1.031232150185568</v>
+        <v>1.031207845707954</v>
       </c>
       <c r="K11">
-        <v>1.036625714090285</v>
+        <v>1.036167035063725</v>
       </c>
       <c r="L11">
-        <v>1.031398737913479</v>
+        <v>1.031417294383371</v>
       </c>
       <c r="M11">
-        <v>1.036245964667991</v>
+        <v>1.036242761487657</v>
       </c>
       <c r="N11">
-        <v>1.013853643952087</v>
+        <v>1.015608276991969</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03703718955932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036728469750605</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02195262954942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000794535094441</v>
+        <v>1.000874857609</v>
       </c>
       <c r="D12">
-        <v>1.021354474641781</v>
+        <v>1.020990867085605</v>
       </c>
       <c r="E12">
-        <v>1.015833429805391</v>
+        <v>1.015947952190579</v>
       </c>
       <c r="F12">
-        <v>1.020653821779878</v>
+        <v>1.020747078963618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045708189426596</v>
+        <v>1.045667026289747</v>
       </c>
       <c r="J12">
-        <v>1.030565306791962</v>
+        <v>1.030642237984839</v>
       </c>
       <c r="K12">
-        <v>1.036083681773378</v>
+        <v>1.035726669700678</v>
       </c>
       <c r="L12">
-        <v>1.030663445675621</v>
+        <v>1.0307758624999</v>
       </c>
       <c r="M12">
-        <v>1.035395743525312</v>
+        <v>1.035487307078673</v>
       </c>
       <c r="N12">
-        <v>1.013623727419233</v>
+        <v>1.015558010432688</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036653957030046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036417124965647</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021858037180913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001038803434101</v>
+        <v>1.001096302265953</v>
       </c>
       <c r="D13">
-        <v>1.021514369745171</v>
+        <v>1.02112847886907</v>
       </c>
       <c r="E13">
-        <v>1.016036451218409</v>
+        <v>1.016130318731735</v>
       </c>
       <c r="F13">
-        <v>1.02088164005583</v>
+        <v>1.020954045988833</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045778482136174</v>
+        <v>1.045724275112432</v>
       </c>
       <c r="J13">
-        <v>1.030706803735115</v>
+        <v>1.030761885371591</v>
       </c>
       <c r="K13">
-        <v>1.036197987793081</v>
+        <v>1.035819070575164</v>
       </c>
       <c r="L13">
-        <v>1.030819709989796</v>
+        <v>1.03091185831712</v>
       </c>
       <c r="M13">
-        <v>1.035576696124688</v>
+        <v>1.03564779222249</v>
       </c>
       <c r="N13">
-        <v>1.013672242156713</v>
+        <v>1.015567435227626</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036732287779258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036479724523822</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021877630064139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001844590563121</v>
+        <v>1.001827893639361</v>
       </c>
       <c r="D14">
-        <v>1.022045833149716</v>
+        <v>1.021587322346845</v>
       </c>
       <c r="E14">
-        <v>1.016707205410234</v>
+        <v>1.016733935008124</v>
       </c>
       <c r="F14">
-        <v>1.021633482017304</v>
+        <v>1.021638124421225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046013005094184</v>
+        <v>1.045916317424536</v>
       </c>
       <c r="J14">
-        <v>1.031176377935363</v>
+        <v>1.031160372995489</v>
       </c>
       <c r="K14">
-        <v>1.036580078122095</v>
+        <v>1.03612975214715</v>
       </c>
       <c r="L14">
-        <v>1.03133734447004</v>
+        <v>1.031363590680893</v>
       </c>
       <c r="M14">
-        <v>1.036175087394369</v>
+        <v>1.036179646889151</v>
       </c>
       <c r="N14">
-        <v>1.013834299360811</v>
+        <v>1.015603515562372</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03700385833231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036700941047696</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021944511556001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002343338731805</v>
+        <v>1.002281606687437</v>
       </c>
       <c r="D15">
-        <v>1.022376890539302</v>
+        <v>1.021874137393756</v>
       </c>
       <c r="E15">
-        <v>1.017122957510283</v>
+        <v>1.017108951985654</v>
       </c>
       <c r="F15">
-        <v>1.022099064442231</v>
+        <v>1.022062598837221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046159466490364</v>
+        <v>1.046036943640107</v>
       </c>
       <c r="J15">
-        <v>1.031468455015292</v>
+        <v>1.031409258848448</v>
       </c>
       <c r="K15">
-        <v>1.036819144558292</v>
+        <v>1.036325297799778</v>
       </c>
       <c r="L15">
-        <v>1.031658850982694</v>
+        <v>1.031645096754425</v>
       </c>
       <c r="M15">
-        <v>1.03654623880897</v>
+        <v>1.036510419273724</v>
       </c>
       <c r="N15">
-        <v>1.013935632782822</v>
+        <v>1.015629221457748</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037178742225428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036845622638009</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021987125904314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005197704659124</v>
+        <v>1.004893782813738</v>
       </c>
       <c r="D16">
-        <v>1.024261414955396</v>
+        <v>1.023517124170116</v>
       </c>
       <c r="E16">
-        <v>1.019502428460418</v>
+        <v>1.019269937693298</v>
       </c>
       <c r="F16">
-        <v>1.02476626191687</v>
+        <v>1.024509297888496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046986030611344</v>
+        <v>1.046724051778567</v>
       </c>
       <c r="J16">
-        <v>1.033130477574708</v>
+        <v>1.032838405456916</v>
       </c>
       <c r="K16">
-        <v>1.038170582847301</v>
+        <v>1.037438896161925</v>
       </c>
       <c r="L16">
-        <v>1.033492596897632</v>
+        <v>1.033264088292268</v>
       </c>
       <c r="M16">
-        <v>1.038666893986134</v>
+        <v>1.038414273283106</v>
       </c>
       <c r="N16">
-        <v>1.014508875045626</v>
+        <v>1.01580831266761</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038137407290606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037636422594798</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022227391618069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006967716691991</v>
+        <v>1.006528525504886</v>
       </c>
       <c r="D17">
-        <v>1.025431894018731</v>
+        <v>1.024549030826141</v>
       </c>
       <c r="E17">
-        <v>1.020980242739778</v>
+        <v>1.020626108992117</v>
       </c>
       <c r="F17">
-        <v>1.026422672504901</v>
+        <v>1.02604293011373</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047496427820575</v>
+        <v>1.047155772994591</v>
       </c>
       <c r="J17">
-        <v>1.034160744221531</v>
+        <v>1.033738113404916</v>
       </c>
       <c r="K17">
-        <v>1.039008234714689</v>
+        <v>1.038139895553766</v>
       </c>
       <c r="L17">
-        <v>1.034630147439505</v>
+        <v>1.034281901276929</v>
       </c>
       <c r="M17">
-        <v>1.039982752103231</v>
+        <v>1.039609237440596</v>
       </c>
       <c r="N17">
-        <v>1.014864199064091</v>
+        <v>1.015958037964835</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038732230599537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038134872802325</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02237919623425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007982856782216</v>
+        <v>1.007472057296851</v>
       </c>
       <c r="D18">
-        <v>1.026098648881312</v>
+        <v>1.02514069093622</v>
       </c>
       <c r="E18">
-        <v>1.021827580527755</v>
+        <v>1.021409228109903</v>
       </c>
       <c r="F18">
-        <v>1.027373479532224</v>
+        <v>1.026928894050591</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047784493074509</v>
+        <v>1.047401844223482</v>
       </c>
       <c r="J18">
-        <v>1.034747637041469</v>
+        <v>1.034255721282456</v>
       </c>
       <c r="K18">
-        <v>1.039481595164742</v>
+        <v>1.038539129215749</v>
       </c>
       <c r="L18">
-        <v>1.035279885885047</v>
+        <v>1.034868367297849</v>
       </c>
       <c r="M18">
-        <v>1.040735866877276</v>
+        <v>1.040298443698181</v>
       </c>
       <c r="N18">
-        <v>1.015065229852629</v>
+        <v>1.016056712732447</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039055311693463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038404404637088</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022464601727357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008335593200527</v>
+        <v>1.007800752457872</v>
       </c>
       <c r="D19">
-        <v>1.026334482259387</v>
+        <v>1.02535111141878</v>
       </c>
       <c r="E19">
-        <v>1.022122940668916</v>
+        <v>1.02168302170586</v>
       </c>
       <c r="F19">
-        <v>1.027704042700982</v>
+        <v>1.027237684801244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047887475125014</v>
+        <v>1.047490635965312</v>
       </c>
       <c r="J19">
-        <v>1.034954539783126</v>
+        <v>1.034439337497903</v>
       </c>
       <c r="K19">
-        <v>1.039651428313873</v>
+        <v>1.038683866864113</v>
       </c>
       <c r="L19">
-        <v>1.035507869170094</v>
+        <v>1.035075092875458</v>
       </c>
       <c r="M19">
-        <v>1.040999035333214</v>
+        <v>1.040540144506834</v>
       </c>
       <c r="N19">
-        <v>1.015137175421009</v>
+        <v>1.016095591876773</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039181758193891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038513730093875</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022496593513344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006777772331602</v>
+        <v>1.006352516499144</v>
       </c>
       <c r="D20">
-        <v>1.025305815468524</v>
+        <v>1.024437383867508</v>
       </c>
       <c r="E20">
-        <v>1.020821490453069</v>
+        <v>1.020479876667647</v>
       </c>
       <c r="F20">
-        <v>1.026244823960419</v>
+        <v>1.025877719031109</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047441436469631</v>
+        <v>1.047108926900292</v>
       </c>
       <c r="J20">
-        <v>1.034049899437888</v>
+        <v>1.033640736657831</v>
       </c>
       <c r="K20">
-        <v>1.038917823697773</v>
+        <v>1.038063723572102</v>
       </c>
       <c r="L20">
-        <v>1.034507839877396</v>
+        <v>1.034171923873983</v>
       </c>
       <c r="M20">
-        <v>1.039841371108087</v>
+        <v>1.039480306346792</v>
       </c>
       <c r="N20">
-        <v>1.01482586389624</v>
+        <v>1.015940204744436</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03866697653563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038079556955112</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022362581707341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001618565869669</v>
+        <v>1.001646797513518</v>
       </c>
       <c r="D21">
-        <v>1.021902243364215</v>
+        <v>1.021482365276248</v>
       </c>
       <c r="E21">
-        <v>1.016520170431142</v>
+        <v>1.016588137579659</v>
       </c>
       <c r="F21">
-        <v>1.021422646888013</v>
+        <v>1.021468750178214</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045951377017798</v>
+        <v>1.045879329395614</v>
       </c>
       <c r="J21">
-        <v>1.031048771035352</v>
+        <v>1.031075827792334</v>
       </c>
       <c r="K21">
-        <v>1.036480221519765</v>
+        <v>1.036067865463644</v>
       </c>
       <c r="L21">
-        <v>1.031195179637504</v>
+        <v>1.031261913103387</v>
       </c>
       <c r="M21">
-        <v>1.036009217570908</v>
+        <v>1.036054494411826</v>
       </c>
       <c r="N21">
-        <v>1.013791776101355</v>
+        <v>1.015664923438486</v>
       </c>
       <c r="Q21">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R21">
-        <v>1.036946735849524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036671976962622</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021934710260878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9982923007844314</v>
+        <v>0.9986144210735628</v>
       </c>
       <c r="D22">
-        <v>1.019707375579829</v>
+        <v>1.019578197265571</v>
       </c>
       <c r="E22">
-        <v>1.013753361419302</v>
+        <v>1.014087220248653</v>
       </c>
       <c r="F22">
-        <v>1.018321917278515</v>
+        <v>1.018636617797966</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044978473811759</v>
+        <v>1.045075524331461</v>
       </c>
       <c r="J22">
-        <v>1.029107629781839</v>
+        <v>1.029415549160921</v>
       </c>
       <c r="K22">
-        <v>1.034898280469536</v>
+        <v>1.034771534036668</v>
       </c>
       <c r="L22">
-        <v>1.029057198025158</v>
+        <v>1.02938467852548</v>
       </c>
       <c r="M22">
-        <v>1.033538946539259</v>
+        <v>1.033847704876493</v>
       </c>
       <c r="N22">
-        <v>1.013120956055916</v>
+        <v>1.015474005043551</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035814775745558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035740658552324</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02165317192271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00004923441811</v>
+        <v>1.000200170962277</v>
       </c>
       <c r="D23">
-        <v>1.020859477669936</v>
+        <v>1.020564540281466</v>
       </c>
       <c r="E23">
-        <v>1.015212648726275</v>
+        <v>1.015391192668558</v>
       </c>
       <c r="F23">
-        <v>1.019958790736196</v>
+        <v>1.020116664993757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045488082719036</v>
+        <v>1.045487349995512</v>
       </c>
       <c r="J23">
-        <v>1.030128118234879</v>
+        <v>1.030272599298041</v>
       </c>
       <c r="K23">
-        <v>1.03572521477301</v>
+        <v>1.035435687015957</v>
       </c>
       <c r="L23">
-        <v>1.03018267014068</v>
+        <v>1.030357893611497</v>
       </c>
       <c r="M23">
-        <v>1.034841060683762</v>
+        <v>1.034996034281554</v>
       </c>
       <c r="N23">
-        <v>1.013471801165781</v>
+        <v>1.01552718385902</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03638983887245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036199684760832</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021794548407543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006842340275587</v>
+        <v>1.006412754802941</v>
       </c>
       <c r="D24">
-        <v>1.025337808538606</v>
+        <v>1.024464625335101</v>
       </c>
       <c r="E24">
-        <v>1.020873300940607</v>
+        <v>1.020527881796881</v>
       </c>
       <c r="F24">
-        <v>1.026305174866222</v>
+        <v>1.025934208258841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047452010365617</v>
+        <v>1.047117031008457</v>
       </c>
       <c r="J24">
-        <v>1.034079520438997</v>
+        <v>1.033666166238813</v>
       </c>
       <c r="K24">
-        <v>1.038934109812566</v>
+        <v>1.038075316982454</v>
       </c>
       <c r="L24">
-        <v>1.034543512283612</v>
+        <v>1.03420384628273</v>
       </c>
       <c r="M24">
-        <v>1.039885570363295</v>
+        <v>1.039520698758737</v>
       </c>
       <c r="N24">
-        <v>1.014833229684786</v>
+        <v>1.015941021982373</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038651188790603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038057775654329</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022362498398753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014444076722185</v>
+        <v>1.013582518484465</v>
       </c>
       <c r="D25">
-        <v>1.030373222904057</v>
+        <v>1.029015277422691</v>
       </c>
       <c r="E25">
-        <v>1.027238676020926</v>
+        <v>1.026507920214617</v>
       </c>
       <c r="F25">
-        <v>1.033440576487419</v>
+        <v>1.032680071752436</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049618419121913</v>
+        <v>1.049022106179782</v>
       </c>
       <c r="J25">
-        <v>1.038494929650592</v>
+        <v>1.037661266159674</v>
       </c>
       <c r="K25">
-        <v>1.042517645331039</v>
+        <v>1.041179267643264</v>
       </c>
       <c r="L25">
-        <v>1.039428365833076</v>
+        <v>1.03870821358118</v>
       </c>
       <c r="M25">
-        <v>1.045541038337451</v>
+        <v>1.044791402155432</v>
       </c>
       <c r="N25">
-        <v>1.016354032309225</v>
+        <v>1.01698243830687</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041182058658483</v>
+        <v>1.040249243305949</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02303785337326</v>
       </c>
     </row>
   </sheetData>
